--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day1.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C5E685-D0F4-4FF1-B494-AC4E62C04997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501A7F61-9908-4032-AF84-C005A61E7DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="638" firstSheet="18" activeTab="23" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="638" firstSheet="18" activeTab="22" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_SchoolGo" sheetId="1" r:id="rId1"/>
@@ -54689,6 +54689,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="3" tint="0.89996032593768116"/>
         </patternFill>
       </fill>
@@ -54724,7 +54731,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
+          <bgColor rgb="FFFFEFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -54746,6 +54781,62 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -54801,7 +54892,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -54816,6 +54914,20 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -54843,42 +54955,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -54893,41 +54970,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -55004,14 +55046,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -55046,7 +55088,189 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFEFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -55081,48 +55305,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -55151,55 +55333,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -55208,13 +55341,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -55256,133 +55382,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -60455,8 +60455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690429A1-5C87-4903-88E1-F8CE1CB0AD47}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -61076,6 +61076,9 @@
     <row r="31" spans="1:8">
       <c r="A31">
         <v>1</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -61270,7 +61273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37A9212-2216-473D-A618-DED2D90469AB}">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
@@ -62724,7 +62727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0C0A81-5F7E-4B69-AE02-1CF499459232}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:I7"/>
     </sheetView>
   </sheetViews>
@@ -63223,7 +63226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F349A6D-78FA-41E7-95C4-55356F8EDA95}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:I7"/>
     </sheetView>
   </sheetViews>
@@ -64302,7 +64305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88044D9-BAC4-4E6C-8C82-5F452811949D}">
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H104" sqref="F104:H104"/>
     </sheetView>
   </sheetViews>
@@ -66539,8 +66542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ABA476-7B17-4809-8C4F-2F9B8D5E9BCC}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -66827,7 +66830,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="43" t="s">
         <v>108</v>
@@ -67047,7 +67050,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="43" t="s">
         <v>108</v>
@@ -67081,7 +67084,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="43" t="s">
         <v>108</v>
@@ -67115,7 +67118,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="43" t="s">
         <v>108</v>
@@ -67132,7 +67135,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="43" t="s">
         <v>108</v>
@@ -67149,7 +67152,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="43" t="s">
         <v>108</v>
@@ -67166,7 +67169,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="43" t="s">
         <v>108</v>
@@ -67268,7 +67271,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>108</v>
@@ -67285,7 +67288,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="43" t="s">
         <v>108</v>
@@ -67353,7 +67356,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="43" t="s">
         <v>108</v>
@@ -67453,6 +67456,9 @@
     <row r="48" spans="1:7">
       <c r="A48">
         <v>1</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -67593,7 +67599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7773A5F6-BD94-47B5-855B-F05BA7AFF7BE}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
@@ -72896,8 +72902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC7C0B1-4AC5-4D8F-862A-CBFE759818AD}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -73254,6 +73260,9 @@
     <row r="18" spans="1:7">
       <c r="A18">
         <v>1</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -73690,8 +73699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C39CDF1-357E-420D-87FA-2B790238D216}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -74471,7 +74480,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="26.4">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>1</v>
       </c>
@@ -74631,7 +74640,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="26.4">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>1</v>
       </c>
@@ -74991,7 +75000,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="26.4">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>1</v>
       </c>
@@ -80871,7 +80880,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="31.2">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>1</v>
       </c>
@@ -81024,7 +81033,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="31.2">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>1</v>
       </c>
@@ -81245,23 +81254,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1 D3:D18">
-    <cfRule type="containsText" dxfId="325" priority="112" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="325" priority="119" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="324" priority="118" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="113" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="323" priority="112" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="322" priority="113" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="323" priority="114" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="321" priority="114" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="117" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="320" priority="117" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="118" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="119" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
@@ -81275,19 +81284,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="containsText" dxfId="317" priority="86" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="317" priority="89" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="316" priority="88" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="315" priority="87" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="314" priority="90" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="87" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="88" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="89" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="90" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="313" priority="86" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D19)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -81297,40 +81306,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="311" priority="43" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="44" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="311" priority="48" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="45" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="310" priority="45" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="46" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",D20)))</formula>
+    <cfRule type="containsText" dxfId="309" priority="44" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="308" priority="43" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="307" priority="47" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="48" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D20)))</formula>
+    <cfRule type="containsText" dxfId="306" priority="46" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",D20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="containsText" dxfId="305" priority="79" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="305" priority="83" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="80" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="304" priority="81" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",D21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="303" priority="80" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="81" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",D21)))</formula>
+    <cfRule type="containsText" dxfId="302" priority="79" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="82" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="301" priority="82" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="83" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="300" priority="84" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D21)))</formula>
@@ -81340,20 +81349,20 @@
     <cfRule type="containsText" dxfId="299" priority="36" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="37" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="298" priority="38" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="297" priority="39" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="296" priority="37" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="38" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="295" priority="41" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="294" priority="40" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="39" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="40" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="41" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D31">
@@ -81362,39 +81371,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="292" priority="72" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="292" priority="76" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="73" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="291" priority="74" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="290" priority="73" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="74" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",D31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="75" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="76" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="289" priority="72" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="77" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="288" priority="77" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="287" priority="75" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="286" priority="22" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="286" priority="25" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",D32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="285" priority="22" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="23" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="284" priority="23" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="24" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="283" priority="26" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="25" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",D32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="26" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="282" priority="24" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D32)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="281" priority="27" operator="containsText" text="1">
@@ -81407,66 +81416,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="containsText" dxfId="279" priority="30" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D33)))</formula>
+    <cfRule type="containsText" dxfId="279" priority="35" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D33)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="278" priority="31" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="32" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="277" priority="30" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="276" priority="32" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="33" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="275" priority="33" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="34" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="274" priority="34" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="35" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D37">
-    <cfRule type="containsText" dxfId="273" priority="15" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="273" priority="21" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="16" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="272" priority="20" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="17" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="271" priority="19" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D34)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="270" priority="18" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="19" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="269" priority="17" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="20" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="268" priority="16" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="21" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="267" priority="15" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="266" priority="65" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="266" priority="69" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="66" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="265" priority="70" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="264" priority="68" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="67" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",D38)))</formula>
+    <cfRule type="containsText" dxfId="263" priority="65" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="68" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="262" priority="66" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="69" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="70" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D38)))</formula>
+    <cfRule type="containsText" dxfId="261" priority="67" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
@@ -81478,17 +81487,17 @@
     <cfRule type="containsText" dxfId="259" priority="58" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="59" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="258" priority="61" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="60" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="257" priority="62" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="60" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="61" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="255" priority="59" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="62" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:D50">
@@ -81497,63 +81506,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D43">
-    <cfRule type="containsText" dxfId="253" priority="8" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="9" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="253" priority="13" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="10" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="252" priority="12" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="11" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="251" priority="11" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="12" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="250" priority="10" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="13" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="249" priority="9" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="248" priority="8" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D50">
-    <cfRule type="containsText" dxfId="247" priority="51" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="247" priority="52" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="246" priority="51" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="52" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="53" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",D44)))</formula>
+    <cfRule type="containsText" dxfId="245" priority="56" operator="containsText" text="0">
+      <formula>NOT(ISERROR(SEARCH("0",D44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="244" priority="54" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="55" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="243" priority="53" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="242" priority="55" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D44)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="56" operator="containsText" text="0">
-      <formula>NOT(ISERROR(SEARCH("0",D44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D56">
     <cfRule type="containsText" dxfId="241" priority="1" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="2" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="240" priority="6" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="3" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="239" priority="2" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",D51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="238" priority="3" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="4" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="237" priority="4" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="5" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="236" priority="5" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D51)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="6" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:D57">
@@ -81573,23 +81582,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F33 F35:F56">
-    <cfRule type="containsText" dxfId="231" priority="105" operator="containsText" text="페이드 아웃">
-      <formula>NOT(ISERROR(SEARCH("페이드 아웃",F3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="106" operator="containsText" text="페이드 인">
+    <cfRule type="containsText" dxfId="231" priority="106" operator="containsText" text="페이드 인">
       <formula>NOT(ISERROR(SEARCH("페이드 인",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="107" operator="containsText" text="나레이션">
+    <cfRule type="containsText" dxfId="230" priority="107" operator="containsText" text="나레이션">
       <formula>NOT(ISERROR(SEARCH("나레이션",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="108" operator="containsText" text="미사키">
+    <cfRule type="containsText" dxfId="229" priority="108" operator="containsText" text="미사키">
       <formula>NOT(ISERROR(SEARCH("미사키",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="109" operator="containsText" text="사사키">
+    <cfRule type="containsText" dxfId="228" priority="109" operator="containsText" text="사사키">
       <formula>NOT(ISERROR(SEARCH("사사키",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="110" operator="containsText" text="미나츠">
+    <cfRule type="containsText" dxfId="227" priority="110" operator="containsText" text="미나츠">
       <formula>NOT(ISERROR(SEARCH("미나츠",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="226" priority="105" operator="containsText" text="페이드 아웃">
+      <formula>NOT(ISERROR(SEARCH("페이드 아웃",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F56 F3:F33">

--- a/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day1.xlsx
+++ b/Download/Assets/Resources/4. Data/1. VisualNovel/Dialogs/Dialogs_Day1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Download_Project\Download\Assets\Resources\4. Data\1. VisualNovel\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3464F9A-31B9-4068-87D0-C96685C6E956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDFE65B-5A8E-4B39-88F9-9131BAB5557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="638" firstSheet="4" activeTab="4" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="638" activeTab="5" xr2:uid="{49FB8DDA-CC9A-4F10-83A2-6EE5D727B386}"/>
   </bookViews>
   <sheets>
     <sheet name="S00_1_SchoolGo" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4479" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4452" uniqueCount="1166">
   <si>
     <t>dialogType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52777,6 +52777,30 @@
       </rPr>
       <t>……)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA03}{MI00}{KI06}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA00}{MI00}{KI10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA03}{MI00}{KI10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA06}{MI00}{KI04}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA06}{MI00}{KI00}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SA00}{MI00}{KI11}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -56936,8 +56960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B15E6C3-7F7C-4EB7-8D85-AD41865E955E}">
   <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -58679,8 +58703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5C07FC-F76F-49F3-A83C-B514D5031AC0}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -59093,7 +59117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8214A8B-6C9C-48ED-B88F-8190AC2B2136}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -59830,7 +59854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5035B1B-2E95-4088-8BF3-E4E5D26C1690}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -67558,7 +67582,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="26.4">
       <c r="A34">
         <v>1</v>
       </c>
@@ -67942,8 +67966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7773A5F6-BD94-47B5-855B-F05BA7AFF7BE}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -68032,9 +68056,6 @@
       <c r="G3" t="s">
         <v>1068</v>
       </c>
-      <c r="H3" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
@@ -68052,9 +68073,6 @@
       <c r="G4" t="s">
         <v>1068</v>
       </c>
-      <c r="H4" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
@@ -68072,9 +68090,6 @@
       <c r="G5" t="s">
         <v>1068</v>
       </c>
-      <c r="H5" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
@@ -68092,9 +68107,6 @@
       <c r="G6" t="s">
         <v>1068</v>
       </c>
-      <c r="H6" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
@@ -68112,9 +68124,6 @@
       <c r="G7" t="s">
         <v>1068</v>
       </c>
-      <c r="H7" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
@@ -68132,9 +68141,6 @@
       <c r="G8" t="s">
         <v>1068</v>
       </c>
-      <c r="H8" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
@@ -68152,9 +68158,6 @@
       <c r="G9" t="s">
         <v>1068</v>
       </c>
-      <c r="H9" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
@@ -68172,9 +68175,6 @@
       <c r="G10" t="s">
         <v>1068</v>
       </c>
-      <c r="H10" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
@@ -68192,9 +68192,6 @@
       <c r="G11" t="s">
         <v>1068</v>
       </c>
-      <c r="H11" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12">
@@ -68212,9 +68209,6 @@
       <c r="G12" t="s">
         <v>1068</v>
       </c>
-      <c r="H12" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13">
@@ -68232,9 +68226,6 @@
       <c r="G13" t="s">
         <v>1068</v>
       </c>
-      <c r="H13" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14">
@@ -68252,9 +68243,6 @@
       <c r="G14" t="s">
         <v>1068</v>
       </c>
-      <c r="H14" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15">
@@ -68272,9 +68260,6 @@
       <c r="G15" t="s">
         <v>1068</v>
       </c>
-      <c r="H15" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
@@ -68292,9 +68277,6 @@
       <c r="G16" t="s">
         <v>1068</v>
       </c>
-      <c r="H16" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
@@ -68312,9 +68294,6 @@
       <c r="G17" t="s">
         <v>1068</v>
       </c>
-      <c r="H17" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
@@ -68332,9 +68311,6 @@
       <c r="G18" t="s">
         <v>1068</v>
       </c>
-      <c r="H18" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
@@ -68352,9 +68328,6 @@
       <c r="G19" t="s">
         <v>1068</v>
       </c>
-      <c r="H19" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
@@ -68372,9 +68345,6 @@
       <c r="G20" t="s">
         <v>1068</v>
       </c>
-      <c r="H20" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
@@ -68392,9 +68362,6 @@
       <c r="G21" t="s">
         <v>1068</v>
       </c>
-      <c r="H21" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
@@ -68412,9 +68379,6 @@
       <c r="G22" t="s">
         <v>1068</v>
       </c>
-      <c r="H22" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
@@ -68432,9 +68396,6 @@
       <c r="G23" t="s">
         <v>1068</v>
       </c>
-      <c r="H23" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
@@ -68452,9 +68413,6 @@
       <c r="G24" t="s">
         <v>1068</v>
       </c>
-      <c r="H24" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
@@ -68472,9 +68430,6 @@
       <c r="G25" t="s">
         <v>1068</v>
       </c>
-      <c r="H25" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
@@ -68492,9 +68447,6 @@
       <c r="G26" t="s">
         <v>1068</v>
       </c>
-      <c r="H26" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
@@ -68512,9 +68464,6 @@
       <c r="G27" t="s">
         <v>1068</v>
       </c>
-      <c r="H27" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
@@ -68532,9 +68481,6 @@
       <c r="G28" t="s">
         <v>1068</v>
       </c>
-      <c r="H28" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
@@ -68552,9 +68498,6 @@
       <c r="G29" t="s">
         <v>1068</v>
       </c>
-      <c r="H29" t="s">
-        <v>1088</v>
-      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
@@ -68716,7 +68659,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="26.4">
       <c r="A38">
         <v>1</v>
       </c>
@@ -69985,8 +69928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2492B5-5286-4C51-A0EE-617DAAF7402C}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="D30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -70064,7 +70007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.8" customHeight="1">
+    <row r="3" spans="1:16" ht="25.95" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -70098,7 +70041,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.8" customHeight="1">
+    <row r="5" spans="1:16" ht="25.95" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -70285,7 +70228,7 @@
         <v>188</v>
       </c>
       <c r="H15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -70305,7 +70248,7 @@
         <v>188</v>
       </c>
       <c r="H16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -71529,7 +71472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A57258B-2DAB-4C21-BB34-62EF444C66FC}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -72426,7 +72369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B55310-7DFB-4209-9270-E7C77F50F6F4}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -73347,7 +73290,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="26.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -73858,7 +73801,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="26.4">
       <c r="A33">
         <v>1</v>
       </c>
@@ -74605,8 +74548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609C6A72-ACFC-487E-9E99-9EC3E4487846}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="F49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -75946,8 +75889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271B8C6D-E66C-49CA-85A0-5A214B1CC69B}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -76256,7 +76199,7 @@
         <v>197</v>
       </c>
       <c r="H13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -76276,7 +76219,7 @@
         <v>197</v>
       </c>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -76296,7 +76239,7 @@
         <v>197</v>
       </c>
       <c r="H15" t="s">
-        <v>234</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -76316,7 +76259,7 @@
         <v>197</v>
       </c>
       <c r="H16" t="s">
-        <v>234</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -76336,7 +76279,7 @@
         <v>197</v>
       </c>
       <c r="H17" t="s">
-        <v>234</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -76712,8 +76655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48928998-9BC0-4C0B-A755-254B564BF033}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -76865,7 +76808,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="31.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -77282,7 +77225,7 @@
         <v>197</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -77302,7 +77245,7 @@
         <v>197</v>
       </c>
       <c r="H27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -77322,7 +77265,7 @@
         <v>197</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -77342,7 +77285,7 @@
         <v>197</v>
       </c>
       <c r="H29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -77362,7 +77305,7 @@
         <v>197</v>
       </c>
       <c r="H30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -77723,8 +77666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6397B58-A896-46D5-8199-88C0AF89D37B}">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -77933,7 +77876,7 @@
         <v>197</v>
       </c>
       <c r="H8" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -77953,7 +77896,7 @@
         <v>197</v>
       </c>
       <c r="H9" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -77973,7 +77916,7 @@
         <v>197</v>
       </c>
       <c r="H10" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -77993,7 +77936,7 @@
         <v>197</v>
       </c>
       <c r="H11" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -78013,7 +77956,7 @@
         <v>197</v>
       </c>
       <c r="H12" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -78033,7 +77976,7 @@
         <v>197</v>
       </c>
       <c r="H13" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -78053,7 +77996,7 @@
         <v>197</v>
       </c>
       <c r="H14" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -78073,7 +78016,7 @@
         <v>197</v>
       </c>
       <c r="H15" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -78093,7 +78036,7 @@
         <v>197</v>
       </c>
       <c r="H16" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -78113,7 +78056,7 @@
         <v>197</v>
       </c>
       <c r="H17" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -78133,7 +78076,7 @@
         <v>197</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -78153,7 +78096,7 @@
         <v>197</v>
       </c>
       <c r="H19" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -78173,7 +78116,7 @@
         <v>197</v>
       </c>
       <c r="H20" t="s">
-        <v>200</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.2">
@@ -78193,7 +78136,7 @@
         <v>197</v>
       </c>
       <c r="H21" t="s">
-        <v>200</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -78213,7 +78156,7 @@
         <v>197</v>
       </c>
       <c r="H22" t="s">
-        <v>200</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -78233,10 +78176,10 @@
         <v>197</v>
       </c>
       <c r="H23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="156">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="171.6">
       <c r="A24">
         <v>1</v>
       </c>
@@ -78256,7 +78199,7 @@
         <v>197</v>
       </c>
       <c r="H24" t="s">
-        <v>200</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -78276,7 +78219,7 @@
         <v>197</v>
       </c>
       <c r="H25" t="s">
-        <v>200</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -78296,7 +78239,7 @@
         <v>197</v>
       </c>
       <c r="H26" t="s">
-        <v>235</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -78316,7 +78259,7 @@
         <v>197</v>
       </c>
       <c r="H27" t="s">
-        <v>312</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -78696,7 +78639,7 @@
         <v>197</v>
       </c>
       <c r="H46" t="s">
-        <v>202</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -78716,7 +78659,7 @@
         <v>197</v>
       </c>
       <c r="H47" t="s">
-        <v>201</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -78736,7 +78679,7 @@
         <v>197</v>
       </c>
       <c r="H48" t="s">
-        <v>201</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -78756,7 +78699,7 @@
         <v>197</v>
       </c>
       <c r="H49" t="s">
-        <v>201</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -78776,7 +78719,7 @@
         <v>197</v>
       </c>
       <c r="H50" t="s">
-        <v>201</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -78796,7 +78739,7 @@
         <v>197</v>
       </c>
       <c r="H51" t="s">
-        <v>201</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -80065,7 +80008,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="26.4">
       <c r="A4">
         <v>1</v>
       </c>
